--- a/heliostrome/jip_project/results/sensitivity_RMSE_Bangladesh_initWC.xlsx
+++ b/heliostrome/jip_project/results/sensitivity_RMSE_Bangladesh_initWC.xlsx
@@ -472,8 +472,12 @@
       <c r="C2" t="n">
         <v>82.64908331552424</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>382.3302147814017</v>
+      </c>
+      <c r="E2" t="n">
+        <v>155.3638681973894</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -487,8 +491,12 @@
       <c r="C3" t="n">
         <v>82.64917953363479</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>323.7513630024993</v>
+      </c>
+      <c r="E3" t="n">
+        <v>131.5597411494255</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -502,8 +510,12 @@
       <c r="C4" t="n">
         <v>82.64934213842668</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>315.0857378820439</v>
+      </c>
+      <c r="E4" t="n">
+        <v>128.0383740510073</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
